--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2334572.265143426</v>
+        <v>2450188.654160331</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651802</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="G2" t="n">
-        <v>20.28958724569063</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>219.1522629091174</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.3828147651827</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123.9935983571075</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642678</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>90.58432138859219</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>102.1402368885801</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>117.4543801224371</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1660284180231</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>72.63544656439285</v>
+        <v>161.520684615001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>111.5811464614157</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -1023,25 +1025,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.500872038048038</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>146.4078468498703</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.5226276352597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.9972434507872</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247058</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>223.5157404419915</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>63.71877654609985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>111.3798298022164</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.05480806223599</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>88.27810958517533</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>184.1670747424466</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>95.12712756824324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>190.5819130177809</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>119.8264588081772</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6229551553992</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>220.4242417780349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>111.3213230702137</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0663491738894</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>72.57619040702825</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.0698539958829</v>
+        <v>521.4447645856142</v>
       </c>
       <c r="C2" t="n">
-        <v>431.0698539958829</v>
+        <v>521.4447645856142</v>
       </c>
       <c r="D2" t="n">
-        <v>165.0266067583271</v>
+        <v>521.4447645856142</v>
       </c>
       <c r="E2" t="n">
-        <v>165.0266067583271</v>
+        <v>521.4447645856142</v>
       </c>
       <c r="F2" t="n">
-        <v>158.0811060091237</v>
+        <v>255.4015173480559</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>242.4365473116363</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="J2" t="n">
-        <v>49.1599390146734</v>
+        <v>49.15993901467414</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935561</v>
+        <v>141.997057293558</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959971</v>
+        <v>294.0714735960003</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795972</v>
+        <v>494.9530007796023</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467032</v>
+        <v>703.6988094670385</v>
       </c>
       <c r="O2" t="n">
-        <v>887.476296028894</v>
+        <v>887.4762960289019</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108067</v>
+        <v>1009.825128108076</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="S2" t="n">
-        <v>899.194086719338</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357921</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="U2" t="n">
-        <v>431.0698539958829</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="V2" t="n">
-        <v>431.0698539958829</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="W2" t="n">
-        <v>431.0698539958829</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="X2" t="n">
-        <v>431.0698539958829</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.0698539958829</v>
+        <v>521.4447645856142</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.704123070166</v>
+        <v>332.920960103554</v>
       </c>
       <c r="C3" t="n">
-        <v>295.2510937890389</v>
+        <v>158.467930822427</v>
       </c>
       <c r="D3" t="n">
-        <v>146.3166841277877</v>
+        <v>158.467930822427</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07062518121441</v>
+        <v>158.467930822427</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121441</v>
+        <v>158.467930822427</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371039</v>
+        <v>95.65665001371131</v>
       </c>
       <c r="L3" t="n">
-        <v>242.269306043317</v>
+        <v>242.2693060433189</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299032</v>
+        <v>432.7162285299062</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779522</v>
+        <v>642.6123592779566</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760982</v>
+        <v>903.3613458954874</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634663</v>
+        <v>1025.278016062229</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060721</v>
+        <v>1035.156931155249</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060721</v>
+        <v>886.50913157122</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060721</v>
+        <v>886.50913157122</v>
       </c>
       <c r="U3" t="n">
-        <v>1053.531259060721</v>
+        <v>886.50913157122</v>
       </c>
       <c r="V3" t="n">
-        <v>1053.531259060721</v>
+        <v>795.0098170372885</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.531259060721</v>
+        <v>540.7724603090868</v>
       </c>
       <c r="X3" t="n">
-        <v>845.6797588551879</v>
+        <v>332.920960103554</v>
       </c>
       <c r="Y3" t="n">
-        <v>637.919460090234</v>
+        <v>332.920960103554</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.2812929370032</v>
+        <v>463.5234762265311</v>
       </c>
       <c r="C4" t="n">
-        <v>308.2812929370032</v>
+        <v>294.5872932986242</v>
       </c>
       <c r="D4" t="n">
-        <v>308.2812929370032</v>
+        <v>144.4706538862885</v>
       </c>
       <c r="E4" t="n">
-        <v>189.6405049345414</v>
+        <v>144.4706538862885</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6405049345414</v>
+        <v>144.4706538862885</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121441</v>
+        <v>144.4706538862885</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121441</v>
+        <v>144.4706538862885</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481198</v>
+        <v>125.4984182940772</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250485</v>
+        <v>315.7177729964429</v>
       </c>
       <c r="M4" t="n">
-        <v>527.495897157082</v>
+        <v>526.6665349030405</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210594</v>
+        <v>738.0340231670185</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376789</v>
+        <v>917.2498138836386</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351421</v>
+        <v>1047.079201097381</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="R4" t="n">
-        <v>924.715389897199</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="S4" t="n">
-        <v>717.9193086652602</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="T4" t="n">
-        <v>717.9193086652602</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="U4" t="n">
-        <v>717.9193086652602</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="V4" t="n">
-        <v>717.9193086652602</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="W4" t="n">
-        <v>717.9193086652602</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="X4" t="n">
-        <v>489.9297577672429</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="Y4" t="n">
-        <v>489.9297577672429</v>
+        <v>566.6954326796423</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.789405660333</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="C5" t="n">
-        <v>367.789405660333</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="E5" t="n">
-        <v>367.789405660333</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="F5" t="n">
-        <v>360.8439049111296</v>
+        <v>300.7206499575934</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V5" t="n">
-        <v>634.167062227511</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W5" t="n">
-        <v>634.167062227511</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X5" t="n">
-        <v>634.167062227511</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.167062227511</v>
+        <v>307.6661507067968</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178.1707977364047</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="C6" t="n">
-        <v>178.1707977364047</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749988</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
         <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="V6" t="n">
-        <v>808.3837902496282</v>
+        <v>688.5481260763265</v>
       </c>
       <c r="W6" t="n">
-        <v>554.1464335214266</v>
+        <v>688.5481260763265</v>
       </c>
       <c r="X6" t="n">
-        <v>554.1464335214266</v>
+        <v>480.6966258707938</v>
       </c>
       <c r="Y6" t="n">
-        <v>346.3861347564727</v>
+        <v>480.6966258707938</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328.6421545640785</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4734,13 @@
         <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987218</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U7" t="n">
-        <v>700.5939555987218</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="V7" t="n">
-        <v>700.5939555987218</v>
+        <v>405.0008470676429</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5939555987218</v>
+        <v>257.114133077875</v>
       </c>
       <c r="X7" t="n">
-        <v>472.6044047007044</v>
+        <v>257.114133077875</v>
       </c>
       <c r="Y7" t="n">
-        <v>328.6421545640785</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1634.158487398108</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1634.158487398108</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102557</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872942</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923564</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230819</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735865</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.359273474786</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.359273474786</v>
+        <v>2003.121004338519</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057905</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429694</v>
+        <v>560.1394111735137</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744422</v>
+        <v>854.8429682049851</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733664</v>
+        <v>1218.104987164205</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.49210333061</v>
+        <v>1605.39011576115</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506773</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292608</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>580.2476435302274</v>
+        <v>472.9280636644271</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8852429786114</v>
+        <v>303.9918807365202</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786114</v>
+        <v>303.9918807365202</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962182</v>
+        <v>303.9918807365202</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962182</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020473</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.637649969323</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096581</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590078</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590078</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269237</v>
+        <v>1310.884232784813</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773075</v>
+        <v>1021.765895288651</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671879</v>
+        <v>767.0814070827643</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302274</v>
+        <v>767.0814070827643</v>
       </c>
       <c r="X10" t="n">
-        <v>580.2476435302274</v>
+        <v>767.0814070827643</v>
       </c>
       <c r="Y10" t="n">
-        <v>580.2476435302274</v>
+        <v>654.5765284946668</v>
       </c>
     </row>
     <row r="11">
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5285,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2804.652647788941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2635.716464861034</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2485.599825448699</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3979.184900903576</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3724.500412697689</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3435.083242660729</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3207.093691762711</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>2986.301112619181</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,28 +6238,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>122.530400105842</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,34 +6481,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306004</v>
+        <v>3195.647281583947</v>
       </c>
       <c r="C31" t="n">
-        <v>2728.681365661314</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661314</v>
+        <v>2876.594459243705</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214751</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177791</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279774</v>
+        <v>3195.647281583947</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136244</v>
+        <v>3195.647281583947</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.635642676658</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1426.218472639697</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1198.22892174168</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>208.9886740942263</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474266</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650335</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>3931.91397929188</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487561</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510502</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.3858538547</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648813</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1360.39208240939</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1132.402531511373</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877305</v>
+        <v>60.59164343877251</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.10913542307955</v>
+        <v>2.10913542307911</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>91.87356436301394</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.025207453911918</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692275</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266941038</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8155,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719638</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241482</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>30.36925650589728</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.32043864788569</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>52.01660326104856</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>41.54258064659052</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>111.8681131589324</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>72.11969353038459</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>35.12774237125629</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.42036229045061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.8110074911699314</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>31.71340154579306</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>35.11263957635548</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>40.64330621514776</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>213.9468079295627</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>817500.8389887003</v>
+        <v>817500.8389887004</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>823394.3232049448</v>
+        <v>823394.3232049451</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798556.8700329899</v>
+        <v>798556.87003299</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448201</v>
@@ -26323,37 +26325,37 @@
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909291</v>
+        <v>679702.412490932</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680944743</v>
+        <v>366.4703680917057</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059454</v>
+        <v>391128.3638059428</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.5331864208</v>
+        <v>68912.53318642145</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774274008</v>
+        <v>85.20559774199155</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756983</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674032</v>
+        <v>253116.5477674024</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,7 +26435,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26442,22 +26444,22 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="L4" t="n">
-        <v>12386.92018181809</v>
-      </c>
       <c r="M4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181802</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557686</v>
+        <v>63021.46164557707</v>
       </c>
       <c r="C5" t="n">
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-359533.0502590897</v>
+        <v>-359533.0502590918</v>
       </c>
       <c r="C6" t="n">
-        <v>319876.333165124</v>
+        <v>319876.3331651267</v>
       </c>
       <c r="D6" t="n">
-        <v>9494.278131330677</v>
+        <v>9494.278131333034</v>
       </c>
       <c r="E6" t="n">
-        <v>4543.723129485748</v>
+        <v>4543.723129483304</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540295</v>
+        <v>512029.1647540297</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540299</v>
+        <v>512029.1647540298</v>
       </c>
       <c r="H6" t="n">
-        <v>512029.1647540297</v>
+        <v>512029.1647540298</v>
       </c>
       <c r="I6" t="n">
         <v>512029.1647540298</v>
       </c>
       <c r="J6" t="n">
-        <v>443116.6315676089</v>
+        <v>443116.6315676083</v>
       </c>
       <c r="K6" t="n">
-        <v>511943.959156287</v>
+        <v>511943.9591562877</v>
       </c>
       <c r="L6" t="n">
-        <v>416646.5186164602</v>
+        <v>416646.5186164598</v>
       </c>
       <c r="M6" t="n">
-        <v>379421.8710251031</v>
+        <v>379421.8710251028</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540298</v>
+        <v>512029.1647540293</v>
       </c>
       <c r="O6" t="n">
-        <v>512029.16475403</v>
+        <v>512029.1647540293</v>
       </c>
       <c r="P6" t="n">
-        <v>512029.1647540297</v>
+        <v>512029.1647540295</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296051</v>
+        <v>613.7700232960532</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175385</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296051</v>
+        <v>613.7700232960532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734273423</v>
+        <v>0.2849904734251822</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480632</v>
+        <v>320.0098783480602</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363259896</v>
+        <v>0.331065236323508</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259616</v>
+        <v>0.3310652363230532</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985331</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259896</v>
+        <v>0.331065236323508</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550279</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>143.4932309765288</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>392.5457330903648</v>
-      </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>95.05310302140066</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739392</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495223</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.8551238908709</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>33.65148209829344</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500675</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807545</v>
+        <v>43.94290942807528</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642708</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27515,16 +27517,16 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>142.2162657608331</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>77.69174329335722</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.97958252413207</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825658</v>
+        <v>15.10853304825631</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718862</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>22.87584376934467</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>340.1987280813171</v>
+        <v>251.3134900307089</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776184</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>35.86391910322303</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>230.2997151113772</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>140.1151514867207</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.06202571683514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.73659821269337</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>27.5295096864705</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>103.528044552528</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>107.2048235498783</v>
       </c>
     </row>
     <row r="11">
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4674171790796</v>
+        <v>2.467417179079609</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524896</v>
+        <v>25.26943618524905</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646638</v>
+        <v>95.12510079646671</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029074</v>
+        <v>209.4189488029081</v>
       </c>
       <c r="K2" t="n">
-        <v>313.864717993347</v>
+        <v>313.8647179933481</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876043</v>
+        <v>389.3769364876057</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460612</v>
+        <v>433.2568667460627</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061211</v>
+        <v>440.2674158061227</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316483</v>
+        <v>415.7320362316498</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231206</v>
+        <v>354.8176746231219</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973333</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753591</v>
+        <v>154.9938943753596</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827644</v>
+        <v>56.22626896827664</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142099</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197393374326368</v>
+        <v>0.1973933743263687</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410374</v>
+        <v>1.320184578410379</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148967</v>
+        <v>12.75020369148971</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333963</v>
+        <v>45.4537234233398</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435876</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970822</v>
+        <v>213.1808579970829</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289718</v>
+        <v>286.6479717289728</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963477</v>
+        <v>334.5046626963489</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682314</v>
+        <v>343.3580057682327</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466121</v>
+        <v>314.1054948466132</v>
       </c>
       <c r="P3" t="n">
-        <v>252.097351643995</v>
+        <v>252.0973516439959</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774371</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621605</v>
+        <v>81.96724952621635</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.5218495156489</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311988</v>
+        <v>5.321270296312006</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962989</v>
+        <v>0.0868542485796302</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665014</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058005</v>
+        <v>9.840443980058039</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923504</v>
+        <v>33.28444650923515</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2506470684162</v>
+        <v>78.25064706841647</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.5898507823534</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653058</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.4956805195712</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187284</v>
+        <v>169.370341018729</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148695</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005031</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770371</v>
+        <v>92.67927351770403</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528307</v>
+        <v>49.76568090528325</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735294</v>
+        <v>19.28847761735301</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477769</v>
+        <v>4.729047720477785</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354607</v>
+        <v>0.06037082196354628</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441729999</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.681109916659</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745092</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762068</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069556</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32558,16 +32560,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>250.1723312270667</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,31 +33271,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>243.1729913598529</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622112</v>
+        <v>28.37304427622186</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836642</v>
+        <v>93.7748669483675</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176171</v>
+        <v>153.6105215176185</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187884</v>
+        <v>202.91063351879</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095302</v>
+        <v>210.8543522095318</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099616</v>
+        <v>185.633824809963</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678511</v>
+        <v>123.5846788678523</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288285</v>
+        <v>44.14760702288382</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272321</v>
+        <v>75.33941902272394</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490976</v>
+        <v>148.0935919490986</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743294</v>
+        <v>192.3706287743306</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848981</v>
+        <v>212.0162936848994</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021677</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296648</v>
+        <v>123.1481516835776</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083377</v>
+        <v>28.53862929141559</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564701</v>
+        <v>105.4826193059218</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>192.1407623256219</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814112</v>
+        <v>213.0795574814118</v>
       </c>
       <c r="N4" t="n">
-        <v>213.502513397957</v>
+        <v>213.5025133979576</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289086</v>
+        <v>181.0260512289092</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653961</v>
+        <v>131.1407951653966</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615454248</v>
+        <v>6.517230266009648</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35033,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407334</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457272</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949723</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637945</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402554</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939887</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091728</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676339</v>
+        <v>451.0527332560632</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378499</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820401</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928735</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>365.79393850202</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634704</v>
+        <v>249.679529123532</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>326.5580100667034</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977084</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870585</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>110.1905571410452</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>116.3353646931862</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998917</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2450188.654160331</v>
+        <v>2445884.337112088</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>258.602526443152</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651827</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
-        <v>219.1522629091174</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651827</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642678</v>
+        <v>18.19058462642685</v>
       </c>
       <c r="S3" t="n">
         <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>67.38308027449708</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>90.58432138859219</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.1402368885801</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180231</v>
+        <v>56.65168219847227</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825636</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651827</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>161.520684615001</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.500872038048038</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>146.4078468498703</v>
+        <v>197.1188673714096</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1153,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247058</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>24.78419191379114</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>223.5157404419915</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>111.3798298022164</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>19.88691958258267</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,13 +1897,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>42.71572132711237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>88.27810958517533</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>28.42659968729146</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>259.545707402859</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>190.5819130177809</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.6229551553992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>266.3321854924545</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>185.0663491738894</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.4447645856142</v>
+        <v>684.7549646358009</v>
       </c>
       <c r="C2" t="n">
-        <v>521.4447645856142</v>
+        <v>418.711717398243</v>
       </c>
       <c r="D2" t="n">
-        <v>521.4447645856142</v>
+        <v>157.497044223342</v>
       </c>
       <c r="E2" t="n">
-        <v>521.4447645856142</v>
+        <v>157.497044223342</v>
       </c>
       <c r="F2" t="n">
-        <v>255.4015173480559</v>
+        <v>150.5515434741385</v>
       </c>
       <c r="G2" t="n">
-        <v>242.4365473116363</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121461</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121461</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467414</v>
+        <v>49.15993901467391</v>
       </c>
       <c r="K2" t="n">
-        <v>141.997057293558</v>
+        <v>141.9970572935581</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735960003</v>
+        <v>294.0714735960001</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796023</v>
+        <v>494.9530007796019</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670385</v>
+        <v>703.698809467038</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289019</v>
+        <v>887.4762960289011</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108076</v>
+        <v>1009.825128108075</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060731</v>
+        <v>899.1940867193467</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060731</v>
+        <v>684.7549646358009</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060731</v>
+        <v>684.7549646358009</v>
       </c>
       <c r="V2" t="n">
-        <v>787.4880118231724</v>
+        <v>684.7549646358009</v>
       </c>
       <c r="W2" t="n">
-        <v>787.4880118231724</v>
+        <v>684.7549646358009</v>
       </c>
       <c r="X2" t="n">
-        <v>787.4880118231724</v>
+        <v>684.7549646358009</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.4447645856142</v>
+        <v>684.7549646358009</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.920960103554</v>
+        <v>650.2300771021634</v>
       </c>
       <c r="C3" t="n">
-        <v>158.467930822427</v>
+        <v>475.7770478210364</v>
       </c>
       <c r="D3" t="n">
-        <v>158.467930822427</v>
+        <v>326.8426381597851</v>
       </c>
       <c r="E3" t="n">
-        <v>158.467930822427</v>
+        <v>167.6051831543296</v>
       </c>
       <c r="F3" t="n">
-        <v>158.467930822427</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121461</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121461</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121461</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121461</v>
+        <v>117.0004092799712</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371131</v>
+        <v>191.5864341124678</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433189</v>
+        <v>338.1990901420752</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299062</v>
+        <v>528.6460126286623</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779566</v>
+        <v>738.5421433767124</v>
       </c>
       <c r="O3" t="n">
-        <v>903.3613458954874</v>
+        <v>908.3363012748592</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062229</v>
+        <v>1025.278016062228</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155249</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="S3" t="n">
-        <v>886.50913157122</v>
+        <v>886.5091315712183</v>
       </c>
       <c r="T3" t="n">
-        <v>886.50913157122</v>
+        <v>818.4454141222313</v>
       </c>
       <c r="U3" t="n">
-        <v>886.50913157122</v>
+        <v>818.4454141222313</v>
       </c>
       <c r="V3" t="n">
-        <v>795.0098170372885</v>
+        <v>818.4454141222313</v>
       </c>
       <c r="W3" t="n">
-        <v>540.7724603090868</v>
+        <v>818.4454141222313</v>
       </c>
       <c r="X3" t="n">
-        <v>332.920960103554</v>
+        <v>818.4454141222313</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.920960103554</v>
+        <v>818.4454141222313</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.5234762265311</v>
+        <v>559.4984609251541</v>
       </c>
       <c r="C4" t="n">
-        <v>294.5872932986242</v>
+        <v>390.5622779972472</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4706538862885</v>
+        <v>240.4456385849114</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4706538862885</v>
+        <v>240.4456385849114</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4706538862885</v>
+        <v>93.55569108700109</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4706538862885</v>
+        <v>93.55569108700109</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4706538862885</v>
+        <v>93.55569108700109</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121461</v>
+        <v>36.33176967440284</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121461</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940772</v>
+        <v>126.3277805481203</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964429</v>
+        <v>316.547135250486</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030405</v>
+        <v>527.4958971570835</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670185</v>
+        <v>738.8633854210614</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836386</v>
+        <v>918.0791761376813</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097381</v>
+        <v>1047.908563351424</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="U4" t="n">
-        <v>787.4880118231724</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="V4" t="n">
-        <v>787.4880118231724</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="W4" t="n">
-        <v>787.4880118231724</v>
+        <v>787.4880118231714</v>
       </c>
       <c r="X4" t="n">
-        <v>787.4880118231724</v>
+        <v>559.4984609251541</v>
       </c>
       <c r="Y4" t="n">
-        <v>566.6954326796423</v>
+        <v>559.4984609251541</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067968</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067968</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067968</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>307.6661507067968</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>300.7206499575934</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411528</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411528</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411528</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411528</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739748</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.6661507067968</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.4812888507257</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4812888507257</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>312.4812888507257</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507257</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
@@ -4664,7 +4664,7 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>688.5481260763265</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>688.5481260763265</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>480.6966258707938</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>480.6966258707938</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434482</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735297</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>405.0008470676429</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>257.114133077875</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="X7" t="n">
-        <v>257.114133077875</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434482</v>
+        <v>634.9529738206666</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2003.121004338519</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398108</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398108</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102557</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321148</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872942</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923564</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230819</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2537.304791113498</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2537.304791113498</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.121004338519</v>
+        <v>2283.723730377677</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.121004338519</v>
+        <v>1952.660843034107</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.121004338519</v>
+        <v>1599.892187763993</v>
       </c>
       <c r="X8" t="n">
-        <v>2003.121004338519</v>
+        <v>1599.892187763993</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.121004338519</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057905</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735137</v>
+        <v>551.2876347907472</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049851</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164205</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.39011576115</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.9280636644271</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9918807365202</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9918807365202</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365202</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020473</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.637649969323</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096581</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590078</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590078</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784813</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288651</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827643</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>767.0814070827643</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>767.0814070827643</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.5765284946668</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,19 +5542,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>265.0731740618515</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>265.0731740618515</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6129,19 +6129,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6311,22 +6311,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>734.6461798836013</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>584.5295404712656</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>436.6164468888725</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>289.7264993909621</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>122.530400105842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583947</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243705</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661312</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>3195.647281583947</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>3195.647281583947</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,10 +6940,10 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>4221.331149328841</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>3931.91397929188</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,7 +7666,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877251</v>
+        <v>60.59164343877262</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.10913542307911</v>
+        <v>99.0079072400051</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91.87356436301394</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.025207453911918</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266941038</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.50521872720211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>30.36925650589728</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>266.2975548066615</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>52.01660326104856</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>111.8681131589324</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>26.97729093373204</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>35.12774237125629</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8110074911699314</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>19.85228889678962</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>40.64330621514776</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.6147597545</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.412490932</v>
+        <v>679702.4124909316</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680917057</v>
+        <v>366.4703680922171</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059428</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642145</v>
+        <v>68912.53318642137</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774199155</v>
+        <v>85.20559774220074</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756983</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674024</v>
+        <v>253116.5477674025</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26444,13 +26444,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557707</v>
+        <v>63021.46164557703</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-359533.0502590918</v>
+        <v>-359533.0502590912</v>
       </c>
       <c r="C6" t="n">
-        <v>319876.3331651267</v>
+        <v>319876.3331651261</v>
       </c>
       <c r="D6" t="n">
-        <v>9494.278131333034</v>
+        <v>9494.278131332627</v>
       </c>
       <c r="E6" t="n">
-        <v>4543.723129483304</v>
+        <v>4196.343875127128</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540298</v>
+        <v>511681.7854996728</v>
       </c>
       <c r="H6" t="n">
-        <v>512029.1647540298</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="I6" t="n">
-        <v>512029.1647540298</v>
+        <v>511681.7854996725</v>
       </c>
       <c r="J6" t="n">
-        <v>443116.6315676083</v>
+        <v>442769.252313251</v>
       </c>
       <c r="K6" t="n">
-        <v>511943.9591562877</v>
+        <v>511596.5799019302</v>
       </c>
       <c r="L6" t="n">
-        <v>416646.5186164598</v>
+        <v>416299.1393621028</v>
       </c>
       <c r="M6" t="n">
-        <v>379421.8710251028</v>
+        <v>379074.491770746</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540293</v>
+        <v>511681.7854996726</v>
       </c>
       <c r="O6" t="n">
-        <v>512029.1647540293</v>
+        <v>511681.7854996728</v>
       </c>
       <c r="P6" t="n">
-        <v>512029.1647540295</v>
+        <v>511681.7854996726</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960532</v>
+        <v>613.7700232960527</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175385</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651827</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960532</v>
+        <v>613.7700232960527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734251822</v>
+        <v>0.284990473425637</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480602</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241352</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651827</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.331065236323508</v>
+        <v>0.3310652363238091</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651827</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363230532</v>
+        <v>0.331065236323866</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985331</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651827</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236323508</v>
+        <v>0.3310652363238091</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.8900770058252</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>96.08051517753097</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765288</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>95.05310302140066</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739392</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495223</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908709</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500675</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807528</v>
+        <v>43.94290942807532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>127.4603781240125</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>142.2162657608331</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.69174329335722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
@@ -27557,10 +27557,10 @@
         <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>65.51434621955089</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825631</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718862</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196192</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>22.87584376934467</v>
+        <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>23.14018357140867</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>251.3134900307089</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>216.5268221531692</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>230.2997151113772</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27830,13 +27830,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>140.1151514867207</v>
+        <v>89.40413096518142</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>98.66802348500322</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>27.5295096864705</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>107.2048235498783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079609</v>
+        <v>2.467417179079607</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524905</v>
+        <v>25.26943618524903</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646671</v>
+        <v>95.12510079646664</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029081</v>
+        <v>209.418948802908</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933481</v>
+        <v>313.8647179933478</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876057</v>
+        <v>389.3769364876054</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460627</v>
+        <v>433.2568667460624</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061227</v>
+        <v>440.2674158061224</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316498</v>
+        <v>415.7320362316495</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231219</v>
+        <v>354.8176746231216</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973333</v>
+        <v>266.4532968973331</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753596</v>
+        <v>154.9938943753595</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827664</v>
+        <v>56.2262689682766</v>
       </c>
       <c r="T2" t="n">
         <v>10.80111870142099</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263687</v>
+        <v>0.1973933743263685</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410379</v>
+        <v>1.320184578410378</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148971</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4537234233398</v>
+        <v>45.45372342333976</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435876</v>
+        <v>124.7284912435875</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970829</v>
+        <v>213.1808579970828</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289728</v>
+        <v>286.6479717289726</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963489</v>
+        <v>334.5046626963487</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682327</v>
+        <v>343.3580057682324</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466132</v>
+        <v>314.1054948466129</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439959</v>
+        <v>252.0973516439957</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774371</v>
+        <v>168.520403377437</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621635</v>
+        <v>81.96724952621628</v>
       </c>
       <c r="S3" t="n">
-        <v>24.5218495156489</v>
+        <v>24.52184951564888</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312006</v>
+        <v>5.321270296312003</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868542485796302</v>
+        <v>0.08685424857963014</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665014</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058039</v>
+        <v>9.840443980058032</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923515</v>
+        <v>33.28444650923513</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841647</v>
+        <v>78.25064706841641</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823534</v>
+        <v>128.5898507823533</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653058</v>
+        <v>164.5507370653057</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195712</v>
+        <v>173.4956805195711</v>
       </c>
       <c r="N4" t="n">
-        <v>169.370341018729</v>
+        <v>169.3703410187289</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148695</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005031</v>
+        <v>133.862235900503</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770403</v>
+        <v>92.67927351770396</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528325</v>
+        <v>49.76568090528321</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735301</v>
+        <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477785</v>
+        <v>4.729047720477782</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354628</v>
+        <v>0.06037082196354623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181056</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491897</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767376</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441729999</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.681109916659</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745092</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389758</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347158</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380019</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762068</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168759</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000167</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069556</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622186</v>
+        <v>28.37304427622172</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7748669483675</v>
+        <v>93.77486694836728</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176185</v>
+        <v>153.6105215176182</v>
       </c>
       <c r="M2" t="n">
-        <v>202.91063351879</v>
+        <v>202.9106335187896</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095318</v>
+        <v>210.8543522095314</v>
       </c>
       <c r="O2" t="n">
-        <v>185.633824809963</v>
+        <v>185.6338248099628</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678523</v>
+        <v>123.5846788678521</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288382</v>
+        <v>44.14760702288365</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.8987718169259</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272394</v>
+        <v>75.3394190227238</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490986</v>
+        <v>148.0935919490984</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743306</v>
+        <v>192.3706287743304</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848994</v>
+        <v>212.0162936848991</v>
       </c>
       <c r="O3" t="n">
-        <v>263.3828147651827</v>
+        <v>171.5092504021685</v>
       </c>
       <c r="P3" t="n">
-        <v>123.1481516835776</v>
+        <v>118.1229442296655</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141559</v>
+        <v>28.53862929141548</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059218</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256219</v>
+        <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814118</v>
+        <v>213.0795574814117</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979576</v>
+        <v>213.5025133979575</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289092</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653966</v>
+        <v>131.1407951653965</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009648</v>
+        <v>5.679490615460219</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407334</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457272</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949723</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637945</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402554</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939887</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091728</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560632</v>
+        <v>316.0205096502335</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378499</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820401</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928735</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>365.79393850202</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.679529123532</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667034</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977084</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870585</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423489</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805392</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2445884.337112088</v>
+        <v>2447644.867414873</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651823</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="D2" t="n">
-        <v>258.602526443152</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605544</v>
+        <v>225.1115375034607</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739393</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.2803476940583</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642685</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>67.38308027449708</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>56.65168219847227</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825636</v>
+        <v>2.073666180362449</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651823</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>111.2254363169657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.18456372565624</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>197.1188673714096</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>17.28688718947226</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>24.78419191379114</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>318.1437649779771</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187856</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>225.6414338000054</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>6.600826611594939</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>31.26260713376568</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>194.7686697604218</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>259.545707402859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>253.630393765991</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>266.3321854924545</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>51.36569740310337</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>684.7549646358009</v>
+        <v>787.4880118231702</v>
       </c>
       <c r="C2" t="n">
-        <v>418.711717398243</v>
+        <v>521.4447645856126</v>
       </c>
       <c r="D2" t="n">
-        <v>157.497044223342</v>
+        <v>255.4015173480551</v>
       </c>
       <c r="E2" t="n">
-        <v>157.497044223342</v>
+        <v>255.4015173480551</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741385</v>
+        <v>248.4560165988516</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377189</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377189</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121459</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467391</v>
+        <v>49.15993901467402</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935581</v>
+        <v>141.9970572935575</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735960001</v>
+        <v>294.0714735959991</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796019</v>
+        <v>494.9530007796009</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467038</v>
+        <v>703.6988094670367</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289011</v>
+        <v>887.4762960288997</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108075</v>
+        <v>1009.825128108073</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193467</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646358009</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="U2" t="n">
-        <v>684.7549646358009</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="V2" t="n">
-        <v>684.7549646358009</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="W2" t="n">
-        <v>684.7549646358009</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="X2" t="n">
-        <v>684.7549646358009</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="Y2" t="n">
-        <v>684.7549646358009</v>
+        <v>1053.531259060728</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2300771021634</v>
+        <v>195.0911784075361</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7770478210364</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8426381597851</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6051831543296</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121459</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121459</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121459</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121459</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0004092799712</v>
+        <v>117.0004092799703</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124678</v>
+        <v>191.5864341124668</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420752</v>
+        <v>338.1990901420741</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286623</v>
+        <v>528.6460126286611</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767124</v>
+        <v>738.542143376711</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748592</v>
+        <v>908.3363012748578</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062228</v>
+        <v>1025.278016062226</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155248</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712183</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="T3" t="n">
-        <v>818.4454141222313</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="U3" t="n">
-        <v>818.4454141222313</v>
+        <v>825.3953723613387</v>
       </c>
       <c r="V3" t="n">
-        <v>818.4454141222313</v>
+        <v>825.3953723613387</v>
       </c>
       <c r="W3" t="n">
-        <v>818.4454141222313</v>
+        <v>571.158015633137</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4454141222313</v>
+        <v>363.3065154276042</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4454141222313</v>
+        <v>363.3065154276042</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>559.4984609251541</v>
+        <v>293.4552136875952</v>
       </c>
       <c r="C4" t="n">
-        <v>390.5622779972472</v>
+        <v>293.4552136875952</v>
       </c>
       <c r="D4" t="n">
-        <v>240.4456385849114</v>
+        <v>293.4552136875952</v>
       </c>
       <c r="E4" t="n">
-        <v>240.4456385849114</v>
+        <v>293.4552136875952</v>
       </c>
       <c r="F4" t="n">
-        <v>93.55569108700109</v>
+        <v>146.5652661896849</v>
       </c>
       <c r="G4" t="n">
-        <v>93.55569108700109</v>
+        <v>146.5652661896849</v>
       </c>
       <c r="H4" t="n">
-        <v>93.55569108700109</v>
+        <v>146.5652661896849</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440284</v>
+        <v>23.16523748461097</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121459</v>
+        <v>21.07062518121456</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481203</v>
+        <v>125.4984182940751</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250486</v>
+        <v>315.7177729964407</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570835</v>
+        <v>526.6665349030382</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210614</v>
+        <v>738.034023167016</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376813</v>
+        <v>917.2498138836359</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351424</v>
+        <v>1047.079201097378</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060729</v>
+        <v>787.4880118231702</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060729</v>
+        <v>787.4880118231702</v>
       </c>
       <c r="W4" t="n">
-        <v>787.4880118231714</v>
+        <v>521.4447645856126</v>
       </c>
       <c r="X4" t="n">
-        <v>559.4984609251541</v>
+        <v>293.4552136875952</v>
       </c>
       <c r="Y4" t="n">
-        <v>559.4984609251541</v>
+        <v>293.4552136875952</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571243</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4567,13 +4567,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>486.0909711466658</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>337.1565614854145</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>177.919106479959</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4688,10 +4688,10 @@
         <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="7">
@@ -4728,16 +4728,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075542</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>855.7455529641967</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>855.7455529641967</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.9529738206666</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.292347699871</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2537.304791113498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2537.304791113498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2283.723730377677</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.660843034107</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1599.892187763993</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1599.892187763993</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1599.892187763993</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>551.2876347907472</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>845.991191822219</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,31 +5029,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5545,22 +5545,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>100.4841646758455</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>100.4841646758455</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1426.218472639697</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,19 +6466,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.43867092217</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1708.43867092217</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7356,7 +7356,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2395.078540748843</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,7 +7666,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877262</v>
+        <v>60.59164343877268</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.0079072400051</v>
+        <v>99.00790724000424</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266941019</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872720211</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.4330134067487</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>60.54304058923876</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>74.66500970697059</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>22.63678056686646</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>26.97729093373204</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>32.89260457059999</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>19.85228889678962</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0397529241849</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="13">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
@@ -26334,13 +26334,13 @@
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
@@ -26349,13 +26349,13 @@
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909316</v>
+        <v>679702.4124909311</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680922171</v>
+        <v>366.4703680924521</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642137</v>
+        <v>68912.53318642126</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774220074</v>
+        <v>85.20559774235679</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756974</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674025</v>
+        <v>253116.5477674027</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26426,16 +26426,16 @@
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557703</v>
+        <v>63021.46164557701</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-359533.0502590912</v>
+        <v>-359533.050259091</v>
       </c>
       <c r="C6" t="n">
-        <v>319876.3331651261</v>
+        <v>319876.333165126</v>
       </c>
       <c r="D6" t="n">
-        <v>9494.278131332627</v>
+        <v>9494.278131332569</v>
       </c>
       <c r="E6" t="n">
-        <v>4196.343875127128</v>
+        <v>4508.985204048338</v>
       </c>
       <c r="F6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285937</v>
       </c>
       <c r="G6" t="n">
-        <v>511681.7854996728</v>
+        <v>511994.4268285937</v>
       </c>
       <c r="H6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="I6" t="n">
-        <v>511681.7854996725</v>
+        <v>511994.4268285936</v>
       </c>
       <c r="J6" t="n">
-        <v>442769.252313251</v>
+        <v>443081.8936421729</v>
       </c>
       <c r="K6" t="n">
-        <v>511596.5799019302</v>
+        <v>511909.2212308516</v>
       </c>
       <c r="L6" t="n">
-        <v>416299.1393621028</v>
+        <v>416611.7806910241</v>
       </c>
       <c r="M6" t="n">
-        <v>379074.491770746</v>
+        <v>379387.1330996673</v>
       </c>
       <c r="N6" t="n">
-        <v>511681.7854996726</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="O6" t="n">
-        <v>511681.7854996728</v>
+        <v>511994.4268285943</v>
       </c>
       <c r="P6" t="n">
-        <v>511681.7854996726</v>
+        <v>511994.4268285939</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960527</v>
+        <v>613.7700232960525</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651823</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960527</v>
+        <v>613.7700232960525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473425637</v>
+        <v>0.2849904734257507</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651823</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363238091</v>
+        <v>0.3310652363242161</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651823</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236323866</v>
+        <v>0.3310652363244723</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651823</v>
+        <v>263.3828147651819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363238091</v>
+        <v>0.3310652363242161</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.3510268982986</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058252</v>
+        <v>101.8900770058256</v>
       </c>
       <c r="D2" t="n">
-        <v>96.08051517753097</v>
+        <v>91.30022685550102</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>187.7237828325948</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
@@ -27460,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4281512942573897</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848002</v>
@@ -27478,7 +27478,7 @@
         <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807532</v>
+        <v>43.94290942807533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642688</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>127.4603781240125</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>65.51434621955089</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13.03486686789394</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>22.87584376934541</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357140867</v>
+        <v>23.14018357140907</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>216.5268221531692</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>33.73724027584936</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>89.40413096518142</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>208.4227681995649</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>98.66802348500322</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>68.09417367807646</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.043320350748088e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079607</v>
+        <v>2.467417179079606</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524903</v>
+        <v>25.26943618524902</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646664</v>
+        <v>95.12510079646661</v>
       </c>
       <c r="J2" t="n">
-        <v>209.418948802908</v>
+        <v>209.4189488029079</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933478</v>
+        <v>313.8647179933477</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876054</v>
+        <v>389.3769364876053</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460624</v>
+        <v>433.2568667460622</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061224</v>
+        <v>440.2674158061222</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316495</v>
+        <v>415.7320362316493</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231216</v>
+        <v>354.8176746231215</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973331</v>
+        <v>266.453296897333</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753595</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682766</v>
+        <v>56.22626896827659</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142099</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263685</v>
+        <v>0.1973933743263684</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410378</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
         <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333976</v>
+        <v>45.45372342333975</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435875</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970828</v>
+        <v>213.1808579970827</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289726</v>
+        <v>286.6479717289725</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963487</v>
+        <v>334.5046626963486</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682324</v>
+        <v>343.3580057682323</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466129</v>
+        <v>314.1054948466128</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439957</v>
+        <v>252.0973516439956</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.520403377437</v>
+        <v>168.5204033774369</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621628</v>
+        <v>81.96724952621625</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564888</v>
+        <v>24.52184951564887</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312003</v>
+        <v>5.321270296312001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963014</v>
+        <v>0.0868542485796301</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,46 +31202,46 @@
         <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058032</v>
+        <v>9.840443980058028</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923513</v>
+        <v>33.28444650923512</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841641</v>
+        <v>78.25064706841638</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823533</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653057</v>
+        <v>164.5507370653056</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195711</v>
+        <v>173.495680519571</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187289</v>
+        <v>169.3703410187288</v>
       </c>
       <c r="O4" t="n">
         <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900503</v>
+        <v>133.8622359005029</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770396</v>
+        <v>92.67927351770392</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528321</v>
+        <v>49.76568090528319</v>
       </c>
       <c r="S4" t="n">
         <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477782</v>
+        <v>4.72904772047778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354623</v>
+        <v>0.06037082196354621</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622172</v>
+        <v>28.37304427622163</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836728</v>
+        <v>93.77486694836716</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176182</v>
+        <v>153.6105215176181</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187896</v>
+        <v>202.9106335187895</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095314</v>
+        <v>210.8543522095313</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099628</v>
+        <v>185.6338248099626</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678521</v>
+        <v>123.5846788678519</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288365</v>
+        <v>44.14760702288353</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.8987718169259</v>
+        <v>96.89877181692499</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227238</v>
+        <v>75.33941902272372</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490984</v>
+        <v>148.0935919490983</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743304</v>
+        <v>192.3706287743303</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848991</v>
+        <v>212.016293684899</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021685</v>
+        <v>171.5092504021684</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296655</v>
+        <v>118.1229442296654</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141548</v>
+        <v>28.53862929141542</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564704</v>
+        <v>105.4826193059197</v>
       </c>
       <c r="L4" t="n">
         <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814117</v>
+        <v>213.0795574814116</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979575</v>
+        <v>213.5025133979574</v>
       </c>
       <c r="O4" t="n">
         <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653965</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615460219</v>
+        <v>6.517230266009534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0205096502335</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35263,7 +35263,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
